--- a/Report nmap.xlsx
+++ b/Report nmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Epicode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6DFED-B10E-4A5D-8884-AF0CBDF8801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD44269-4868-49E9-AED0-26AF12243D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5882B6A3-711B-474A-9DBB-1936347008C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>nmap -sT 192.168.50.101 -p 1-1024</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>La scansione di nmap con opzione -sT è più invasiva perché stabilisce una connessione completa sulle porte.</t>
-  </si>
-  <si>
-    <t>N.B. Ho evitato di scrivere le stesse porte e servizi per risparmiare tempo</t>
   </si>
   <si>
     <t>Inoltre scannerizza anche il sistema operativo OS e la sua versione in uso.</t>
@@ -485,7 +482,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -736,18 +733,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
